--- a/biology/Médecine/Muscle_stylo-glosse/Muscle_stylo-glosse.xlsx
+++ b/biology/Médecine/Muscle_stylo-glosse/Muscle_stylo-glosse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle stylo-glosse (Musculus styloglossus en latin) est un muscle pair extrinsèque de la langue
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Insertion crâniale: il nait de la face antéro-latérale de l'apophyse styloïde de l'os temporal près de son extrémité et du ligament stylo-mandibulaire
 Trajet: il se dirige en avant, en bas et en dedans vers le dos de la langue où il se divise en deux faisceaux terminaux:
@@ -544,7 +558,9 @@
           <t>Innervation</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'innervation est assurée par le nerf glosso-pharyngien; on cite également le nerf facial (rameau lingual pour ce muscle ainsi que pour le muscle palato-glosse).
 </t>
@@ -575,7 +591,9 @@
           <t>Action</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle stylo-glosse attire la langue en haut et en arrière
 </t>
